--- a/projects.xlsx
+++ b/projects.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Jenkins\publish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F3263F-B03D-4DE9-A940-625703DD4F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AF95C7-2508-4858-A8AE-793B5E66E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2235" windowWidth="21600" windowHeight="11505" xr2:uid="{232C2E75-DCBC-4924-AE5A-0A313BE6BAAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{232C2E75-DCBC-4924-AE5A-0A313BE6BAAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
+    <sheet name="prueba" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,15 +35,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Projects</t>
   </si>
   <si>
-    <t>AmxCoMovPosOptDesc007_B22</t>
-  </si>
-  <si>
     <t>TestRuben1</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>Hola</t>
+  </si>
+  <si>
+    <t>algo</t>
+  </si>
+  <si>
+    <t>Soy B2</t>
+  </si>
+  <si>
+    <t>Soy D10</t>
   </si>
 </sst>
 </file>
@@ -113,13 +126,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1EBC66-685E-42AD-85C6-222DFBBC3ADD}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,29 +462,63 @@
     <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9BC559-DA60-428A-813E-D0C03A1A3066}">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/projects.xlsx
+++ b/projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AF95C7-2508-4858-A8AE-793B5E66E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191A5D05-015D-4DEC-9EB4-A06A7759A8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{232C2E75-DCBC-4924-AE5A-0A313BE6BAAE}"/>
+    <workbookView xWindow="2520" yWindow="2355" windowWidth="21600" windowHeight="11505" xr2:uid="{232C2E75-DCBC-4924-AE5A-0A313BE6BAAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Projects</t>
   </si>
@@ -43,19 +43,13 @@
     <t>TestRuben1</t>
   </si>
   <si>
-    <t>Prueba</t>
-  </si>
-  <si>
-    <t>Hola</t>
-  </si>
-  <si>
-    <t>algo</t>
-  </si>
-  <si>
     <t>Soy B2</t>
   </si>
   <si>
     <t>Soy D10</t>
+  </si>
+  <si>
+    <t>AmxCoMovPosOptDesc007_B22</t>
   </si>
 </sst>
 </file>
@@ -451,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1EBC66-685E-42AD-85C6-222DFBBC3ADD}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,35 +456,26 @@
     <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,12 +495,12 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191A5D05-015D-4DEC-9EB4-A06A7759A8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D96C23-E030-4328-A56D-69DE2E22FCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="2355" windowWidth="21600" windowHeight="11505" xr2:uid="{232C2E75-DCBC-4924-AE5A-0A313BE6BAAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
-    <sheet name="prueba" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Projects</t>
   </si>
@@ -43,20 +42,17 @@
     <t>TestRuben1</t>
   </si>
   <si>
-    <t>Soy B2</t>
+    <t>TestRuben2</t>
   </si>
   <si>
-    <t>Soy D10</t>
-  </si>
-  <si>
-    <t>AmxCoMovPosOptDesc007_B22</t>
+    <t>TestRuben3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +73,12 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -448,7 +450,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,43 +469,21 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9BC559-DA60-428A-813E-D0C03A1A3066}">
-  <dimension ref="B2:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>